--- a/result.xlsx
+++ b/result.xlsx
@@ -436,47 +436,47 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Поезд</t>
+          <t>trainNumber</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Рейтинг поезда</t>
+          <t>trainRate</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Время отправления</t>
+          <t>departureTime</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Время прибытия</t>
+          <t>arrivalTime</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Откуда</t>
+          <t>townFrom</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Куда</t>
+          <t>townTo</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Время в пути</t>
+          <t>travelTime</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Дата следования</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ссылка</t>
+          <t>Link</t>
         </is>
       </c>
     </row>
